--- a/ScanReport.xlsx
+++ b/ScanReport.xlsx
@@ -107,7 +107,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>subject_id</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -136,16 +136,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drug</t>
+          <t>entry_date</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -165,16 +165,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>discharge_date</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
@@ -183,7 +183,7 @@
         <v>2.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -194,7 +194,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>drug</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -217,6 +217,64 @@
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>new_table</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>new_table</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -238,7 +296,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>subject_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -248,30 +306,50 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>entry_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>discharge_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>drug</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
       <c r="H1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -314,6 +392,26 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>List truncated...</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>List truncated...</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/ScanReport.xlsx
+++ b/ScanReport.xlsx
@@ -1358,10 +1358,10 @@
         <v>10.0</v>
       </c>
       <c r="E49" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F49" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1387,10 +1387,10 @@
         <v>36.0</v>
       </c>
       <c r="E50" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F50" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -1416,10 +1416,10 @@
         <v>36.0</v>
       </c>
       <c r="E51" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F51" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -1445,10 +1445,10 @@
         <v>7.0</v>
       </c>
       <c r="E52" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F52" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -1474,10 +1474,10 @@
         <v>69.0</v>
       </c>
       <c r="E53" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F53" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -1503,10 +1503,10 @@
         <v>6.0</v>
       </c>
       <c r="E54" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F54" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -1532,10 +1532,10 @@
         <v>16.0</v>
       </c>
       <c r="E55" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="F55" t="n">
-        <v>8104.0</v>
+        <v>8127.0</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0c32530f-e0f8-4958-a0f3-1dfe20bc5e98</t>
+          <t>4f08d387-790e-4533-be08-04dd15302de9</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4f08d387-790e-4533-be08-04dd15302de9</t>
+          <t>0c32530f-e0f8-4958-a0f3-1dfe20bc5e98</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Stretching exercises</t>
+          <t>Wound care</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Wound care</t>
+          <t>Stretching exercises</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10a31d31-642b-44e4-9ffe-d267c8acde27</t>
+          <t>c8f9335c-21b0-4602-a513-31d33d2f2943</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>c8f9335c-21b0-4602-a513-31d33d2f2943</t>
+          <t>10a31d31-642b-44e4-9ffe-d267c8acde27</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2d2608e6-c842-4098-a0da-d7d6d03f1723</t>
+          <t>9086c7f1-1a6b-40b6-9803-d094361e2ab1</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9086c7f1-1a6b-40b6-9803-d094361e2ab1</t>
+          <t>2d2608e6-c842-4098-a0da-d7d6d03f1723</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>162573006</t>
+          <t>26929004</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>26929004</t>
+          <t>162573006</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7b1d08d5-8945-4976-a6d5-2896b51472da</t>
+          <t>300a7a41-352e-49c4-957a-a73ef066b1ab</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>300a7a41-352e-49c4-957a-a73ef066b1ab</t>
+          <t>7b1d08d5-8945-4976-a6d5-2896b51472da</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -25165,7 +25165,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016-07-13</t>
+          <t>2015-10-10</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -25207,7 +25207,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2015-10-10</t>
+          <t>2016-07-13</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3995cc1c-7676-4beb-898b-7abc534cf3b3</t>
+          <t>a9d31c62-042e-4ecf-8c9d-cadab692dbf2</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>a9d31c62-042e-4ecf-8c9d-cadab692dbf2</t>
+          <t>3995cc1c-7676-4beb-898b-7abc534cf3b3</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1d62a222-4183-4327-b4a5-71108b96c7aa</t>
+          <t>a89f450c-0faa-4332-96dd-b462479c6e81</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>a89f450c-0faa-4332-96dd-b462479c6e81</t>
+          <t>1d62a222-4183-4327-b4a5-71108b96c7aa</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -32351,7 +32351,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>245.0</v>
+        <v>246.0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>486.0</v>
+        <v>493.0</v>
       </c>
     </row>
     <row r="9">
@@ -32993,11 +32993,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>(score)</t>
+          <t>{count}</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
@@ -33051,11 +33051,11 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{T-score}</t>
+          <t>(score)</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -33109,11 +33109,11 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>{T-score}</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ng/mL</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -33225,13 +33225,11 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ng/mL</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
@@ -33365,11 +33363,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>eaee20a0-5c90-4589-9828-3ffb1c6d3e50</t>
+          <t>2ae9a9b8-df7f-459d-b097-84f1b7d0ae61</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -33425,15 +33423,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adda52d0-e73b-449d-b8da-a76bb0da256a</t>
+          <t>eaee20a0-5c90-4589-9828-3ffb1c6d3e50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>a872cf0f-f631-4133-a0ff-43f4a818ff47</t>
+          <t>4ce95d7c-0824-4a27-874c-58bf821158e9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -33485,15 +33483,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>64730185-a3aa-4624-930b-2f9a1ae8b814</t>
+          <t>adda52d0-e73b-449d-b8da-a76bb0da256a</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>121.0</v>
+        <v>125.0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2c1cd59d-7a85-4ad3-8e34-274109398619</t>
+          <t>a872cf0f-f631-4133-a0ff-43f4a818ff47</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -33545,7 +33543,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2ae9a9b8-df7f-459d-b097-84f1b7d0ae61</t>
+          <t>64730185-a3aa-4624-930b-2f9a1ae8b814</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -33553,7 +33551,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2ef9e74e-9164-475f-9105-4735d60ef499</t>
+          <t>2c1cd59d-7a85-4ad3-8e34-274109398619</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -33561,27 +33559,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>72106-8</t>
+          <t>46240-8</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Total score [MMSE]</t>
+          <t>History of Hospitalizations+​Outpatient visits</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>71</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -33613,7 +33611,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8d6d9729-e551-4a67-b041-72036895d8c4</t>
+          <t>2ef9e74e-9164-475f-9105-4735d60ef499</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -33621,23 +33619,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>38265-5</t>
+          <t>72106-8</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>DXA [T-score] Bone density</t>
+          <t>Total score [MMSE]</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>107</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -33673,7 +33671,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ef0c8b5b-7ce3-4b30-9cb2-1e5a5ffadd75</t>
+          <t>8d6d9729-e551-4a67-b041-72036895d8c4</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -33681,19 +33679,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>33756-8</t>
+          <t>38265-5</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Polyp size greatest dimension by CAP cancer protocols</t>
+          <t>DXA [T-score] Bone density</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -33733,7 +33731,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6cfacb9d-3ddc-43ec-83ed-48e9dba688e4</t>
+          <t>ef0c8b5b-7ce3-4b30-9cb2-1e5a5ffadd75</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -33741,7 +33739,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>57905-2</t>
+          <t>33756-8</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -33793,7 +33791,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>63e24044-200d-432b-a56d-c359a870fd29</t>
+          <t>6cfacb9d-3ddc-43ec-83ed-48e9dba688e4</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -33801,19 +33799,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6273-7</t>
+          <t>57905-2</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>White oak IgE Ab in Serum</t>
+          <t>Polyp size greatest dimension by CAP cancer protocols</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -33821,7 +33819,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -33853,7 +33851,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cfd1412a-fc0a-4650-8fd6-03e3565b29b8</t>
+          <t>63e24044-200d-432b-a56d-c359a870fd29</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -33861,19 +33859,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6106-9</t>
+          <t>19926-5</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Peanut IgE Ab in Serum</t>
+          <t>FEV1/​FVC</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -33913,7 +33911,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0743ffae-36e3-4151-bf1e-27e6ed4ab2e4</t>
+          <t>cfd1412a-fc0a-4650-8fd6-03e3565b29b8</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -33921,7 +33919,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6206-7</t>
+          <t>6273-7</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -33929,7 +33927,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Wheat IgE Ab in Serum</t>
+          <t>White oak IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -33973,7 +33971,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0a85208a-95cf-455b-a030-acd466e22561</t>
+          <t>0743ffae-36e3-4151-bf1e-27e6ed4ab2e4</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -33981,7 +33979,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6248-9</t>
+          <t>6106-9</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -33989,7 +33987,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Egg white IgE Ab in Serum</t>
+          <t>Peanut IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -34033,7 +34031,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fb6c213c-0c4b-4e9d-8504-57f19cfe2efa</t>
+          <t>0a85208a-95cf-455b-a030-acd466e22561</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -34041,7 +34039,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6189-5</t>
+          <t>6206-7</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -34049,7 +34047,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Walnut IgE Ab in Serum</t>
+          <t>Wheat IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -34093,7 +34091,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>f3414936-9473-4087-8d23-49a064f6b110</t>
+          <t>fb6c213c-0c4b-4e9d-8504-57f19cfe2efa</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -34101,7 +34099,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6095-4</t>
+          <t>6248-9</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -34109,7 +34107,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Latex IgE Ab in Serum</t>
+          <t>Egg white IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -34153,7 +34151,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>c847cf1a-5b07-4753-b7b5-6c4e08bff7df</t>
+          <t>f3414936-9473-4087-8d23-49a064f6b110</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -34161,7 +34159,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6246-3</t>
+          <t>6189-5</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -34169,7 +34167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Codfish IgE Ab in Serum</t>
+          <t>Walnut IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -34213,7 +34211,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>a601cca0-cc1d-4407-a131-b21f8d9713d3</t>
+          <t>c847cf1a-5b07-4753-b7b5-6c4e08bff7df</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -34221,7 +34219,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7258-7</t>
+          <t>6095-4</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -34229,7 +34227,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Common Ragweed IgE Ab in Serum</t>
+          <t>Latex IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -34273,7 +34271,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>e2b06845-85f6-4359-b6b9-1978ea3adb37</t>
+          <t>a601cca0-cc1d-4407-a131-b21f8d9713d3</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -34281,7 +34279,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6833-8</t>
+          <t>6246-3</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -34289,7 +34287,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Shrimp IgE Ab in Serum</t>
+          <t>Codfish IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -34333,7 +34331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3c1451b6-1f11-4a54-805e-1a6564a97b7e</t>
+          <t>e2b06845-85f6-4359-b6b9-1978ea3adb37</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -34341,7 +34339,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6075-6</t>
+          <t>7258-7</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -34349,7 +34347,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Cow milk IgE Ab in Serum</t>
+          <t>Common Ragweed IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -34393,7 +34391,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>74d1967a-f8d7-47dd-8e60-5dd71e97cf7f</t>
+          <t>3c1451b6-1f11-4a54-805e-1a6564a97b7e</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -34401,7 +34399,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6158-0</t>
+          <t>6833-8</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -34409,7 +34407,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Soybean IgE Ab in Serum</t>
+          <t>Shrimp IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -34453,7 +34451,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>037dcaaa-101c-4cd2-9555-3a6324cadeb7</t>
+          <t>74d1967a-f8d7-47dd-8e60-5dd71e97cf7f</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -34461,7 +34459,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6844-5</t>
+          <t>6075-6</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -34469,7 +34467,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Cat dander IgE Ab in Serum</t>
+          <t>Cow milk IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -34513,7 +34511,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>e91c7edb-f63a-48c1-a217-c0c044d98011</t>
+          <t>037dcaaa-101c-4cd2-9555-3a6324cadeb7</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -34521,7 +34519,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6085-5</t>
+          <t>6158-0</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -34529,7 +34527,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>American house dust mite IgE Ab in Serum</t>
+          <t>Soybean IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -34573,7 +34571,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91f8719f-6b8e-4ed9-a36a-1b8f6ef086d7</t>
+          <t>0cfadda3-7666-476f-a322-311dab614561</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -34581,7 +34579,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6082-2</t>
+          <t>6844-5</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -34589,7 +34587,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cladosporium herbarum IgE Ab in Serum</t>
+          <t>Cat dander IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -34633,7 +34631,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07ea2452-d721-4886-8674-5308247ba7cd</t>
+          <t>e91c7edb-f63a-48c1-a217-c0c044d98011</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -34641,7 +34639,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6276-0</t>
+          <t>6085-5</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -34649,7 +34647,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Honey bee IgE Ab in Serum</t>
+          <t>American house dust mite IgE Ab in Serum</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -34693,7 +34691,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>e99d68e6-ae08-4841-a636-c91fd20edd24</t>
+          <t>91f8719f-6b8e-4ed9-a36a-1b8f6ef086d7</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -34701,23 +34699,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>6082-2</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5.0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Cladosporium herbarum IgE Ab in Serum</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>5.0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -34757,7 +34751,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4ddee2eb-dd83-4afe-bd8a-daa45e7714e9</t>
+          <t>07ea2452-d721-4886-8674-5308247ba7cd</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -34765,23 +34759,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>6276-0</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5.0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>Honey bee IgE Ab in Serum</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>5.0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -34821,7 +34811,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>dd1480a5-6017-40c4-b1ca-47f04f2976b9</t>
+          <t>e99d68e6-ae08-4841-a636-c91fd20edd24</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -34885,7 +34875,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>02f7f961-995d-4c93-9e1a-3e4b065a4a2c</t>
+          <t>4ddee2eb-dd83-4afe-bd8a-daa45e7714e9</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -34913,7 +34903,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -34941,7 +34931,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3b3a04f8-db7c-4a75-a383-22976dc84b1e</t>
+          <t>8abd6da8-9c46-4f33-a701-37dcb1b0b6dd</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -34949,7 +34939,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0aca4fc4-0a94-4af2-9712-e8b3f22f5710</t>
+          <t>dd1480a5-6017-40c4-b1ca-47f04f2976b9</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -34977,7 +34967,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -35005,7 +34995,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8f36725c-0669-418c-8c9b-bc7c83ff44ee</t>
+          <t>3b3a04f8-db7c-4a75-a383-22976dc84b1e</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -35013,7 +35003,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3d459580-da14-409b-8c57-06d88e45565f</t>
+          <t>02f7f961-995d-4c93-9e1a-3e4b065a4a2c</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -35041,11 +35031,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>142</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -35069,15 +35059,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8f69aebb-f19f-42bf-9725-f1e905e64cd4</t>
+          <t>8f36725c-0669-418c-8c9b-bc7c83ff44ee</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>28b9a283-7a6b-41f8-82bd-a927576180ec</t>
+          <t>0aca4fc4-0a94-4af2-9712-e8b3f22f5710</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -35105,11 +35095,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -35133,7 +35123,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>53c139ea-24ef-43f2-ac2f-65d4279d5c72</t>
+          <t>8f69aebb-f19f-42bf-9725-f1e905e64cd4</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -35141,7 +35131,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>d69ece2b-c01f-4135-87e5-5870b536b8a6</t>
+          <t>3d459580-da14-409b-8c57-06d88e45565f</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -35169,11 +35159,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>84</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -35197,15 +35187,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9c434300-f402-4060-b8da-b81ef4678ac5</t>
+          <t>53c139ea-24ef-43f2-ac2f-65d4279d5c72</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>d5c30058-ccff-4605-95dc-d021bfd483ae</t>
+          <t>28b9a283-7a6b-41f8-82bd-a927576180ec</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -35253,7 +35243,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2009-03-22</t>
+          <t>2009-03-11</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -35261,15 +35251,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>68cde1c3-a1bb-4444-8a30-e0479c589280</t>
+          <t>9c434300-f402-4060-b8da-b81ef4678ac5</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4fe0f9e1-d7b0-443d-b701-44fc7287d8ea</t>
+          <t>d69ece2b-c01f-4135-87e5-5870b536b8a6</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -35317,7 +35307,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2010-05-01</t>
+          <t>2009-03-22</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -35325,7 +35315,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0d41da90-c59d-488f-ac54-e316441c36b5</t>
+          <t>68cde1c3-a1bb-4444-8a30-e0479c589280</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -35333,7 +35323,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>81b4e36b-60fd-4733-8b66-acf143590d99</t>
+          <t>d5c30058-ccff-4605-95dc-d021bfd483ae</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -35381,7 +35371,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2015-06-20</t>
+          <t>2010-05-01</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -35389,15 +35379,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>c8b64227-1f04-4c2a-af74-b422e04d1610</t>
+          <t>0d41da90-c59d-488f-ac54-e316441c36b5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4e38c9b5-45e3-43be-81e5-6f087a4201f4</t>
+          <t>4fe0f9e1-d7b0-443d-b701-44fc7287d8ea</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -35445,7 +35435,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2011-08-01</t>
+          <t>2015-06-20</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -35453,7 +35443,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>544d4cc5-4aa3-4005-a241-568f17a0ca1b</t>
+          <t>c8b64227-1f04-4c2a-af74-b422e04d1610</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -35461,7 +35451,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>36efa580-ab84-4938-bc0d-cb9bf64aec8b</t>
+          <t>81b4e36b-60fd-4733-8b66-acf143590d99</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -35509,7 +35499,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2009-07-01</t>
+          <t>2011-08-01</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -35517,15 +35507,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0f940a6b-196b-4320-b1e1-93d7409cb369</t>
+          <t>544d4cc5-4aa3-4005-a241-568f17a0ca1b</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>eecfb498-161f-4e1e-b4c5-86d9d682c386</t>
+          <t>4e38c9b5-45e3-43be-81e5-6f087a4201f4</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -35573,7 +35563,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2014-08-09</t>
+          <t>2009-07-01</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -35581,15 +35571,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>b91ff5ec-ea15-48b9-a979-3540e1d2abf7</t>
+          <t>0f940a6b-196b-4320-b1e1-93d7409cb369</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>99d6ffa3-fa1e-4a5e-a0f3-a473020f02e8</t>
+          <t>36efa580-ab84-4938-bc0d-cb9bf64aec8b</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -35637,7 +35627,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2014-08-19</t>
+          <t>2014-08-09</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -35645,7 +35635,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>e5f3e78c-65a3-469d-99f0-76bd87715635</t>
+          <t>b91ff5ec-ea15-48b9-a979-3540e1d2abf7</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -35653,11 +35643,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>765fbe89-33a7-4609-9786-a769d4985f13</t>
+          <t>eecfb498-161f-4e1e-b4c5-86d9d682c386</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -35701,7 +35691,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2009-09-22</t>
+          <t>2014-08-19</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -35709,19 +35699,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3f166d1a-6682-46e4-8815-88acdf7672fd</t>
+          <t>e5f3e78c-65a3-469d-99f0-76bd87715635</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2ee61168-b402-406d-9732-6d53112deb1a</t>
+          <t>99d6ffa3-fa1e-4a5e-a0f3-a473020f02e8</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -35765,7 +35755,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2010-11-14</t>
+          <t>2009-09-22</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -35773,7 +35763,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8abd6da8-9c46-4f33-a701-37dcb1b0b6dd</t>
+          <t>3f166d1a-6682-46e4-8815-88acdf7672fd</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -35781,7 +35771,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>e34cb42c-9121-45e4-8a92-31c090d7d880</t>
+          <t>765fbe89-33a7-4609-9786-a769d4985f13</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -35829,7 +35819,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2009-10-26</t>
+          <t>2010-11-14</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -35845,7 +35835,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>c61f75d8-4020-4b11-a04d-8e3555182a0c</t>
+          <t>2ee61168-b402-406d-9732-6d53112deb1a</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -35893,7 +35883,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2008-05-13</t>
+          <t>2009-10-26</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -35909,7 +35899,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4ce95d7c-0824-4a27-874c-58bf821158e9</t>
+          <t>e34cb42c-9121-45e4-8a92-31c090d7d880</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -35957,7 +35947,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2010-08-12</t>
+          <t>2008-05-13</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -35973,7 +35963,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0cde31ba-a85a-4808-a243-24c95dee2f0f</t>
+          <t>c61f75d8-4020-4b11-a04d-8e3555182a0c</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -36021,7 +36011,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2010-08-03</t>
+          <t>2010-08-12</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -36037,7 +36027,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2c3224ae-4ac3-4858-aa70-0dbfcae7184b</t>
+          <t>0cde31ba-a85a-4808-a243-24c95dee2f0f</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -36085,7 +36075,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2010-08-03</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -36101,7 +36091,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>002f5906-fc24-4fb0-9885-3ac2866a9fb4</t>
+          <t>2c3224ae-4ac3-4858-aa70-0dbfcae7184b</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -36149,7 +36139,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2011-07-08</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -36165,7 +36155,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>c4cd992d-bf21-4d4c-adad-6a318cbc552a</t>
+          <t>002f5906-fc24-4fb0-9885-3ac2866a9fb4</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -36213,7 +36203,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2013-06-04</t>
+          <t>2011-07-08</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -36229,7 +36219,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>58254caa-6018-438f-8229-baf693e1f331</t>
+          <t>c4cd992d-bf21-4d4c-adad-6a318cbc552a</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -36277,7 +36267,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2013-06-01</t>
+          <t>2013-06-04</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -36293,7 +36283,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>00965ee6-e459-4ef7-8916-9fad67fdc72b</t>
+          <t>58254caa-6018-438f-8229-baf693e1f331</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -36341,7 +36331,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2011-05-28</t>
+          <t>2013-06-01</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -36357,7 +36347,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>f4b98aef-2967-4c2e-a943-abcb4ea03d01</t>
+          <t>00965ee6-e459-4ef7-8916-9fad67fdc72b</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -36405,7 +36395,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2010-06-16</t>
+          <t>2012-05-27</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -36421,7 +36411,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9521b3af-17eb-4c3a-98a2-fbdcd4ed7ecb</t>
+          <t>f4b98aef-2967-4c2e-a943-abcb4ea03d01</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -36469,7 +36459,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2016-03-29</t>
+          <t>2011-05-28</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -36485,7 +36475,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>599475e0-0c41-47a6-ab25-6074c17f5046</t>
+          <t>9521b3af-17eb-4c3a-98a2-fbdcd4ed7ecb</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -36513,11 +36503,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -36533,7 +36523,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2008-03-26</t>
+          <t>2010-06-16</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -36549,7 +36539,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>f3df3f9b-741b-4afd-834e-c9f2f2bb4782</t>
+          <t>599475e0-0c41-47a6-ab25-6074c17f5046</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -36577,7 +36567,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -36597,7 +36587,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2016-03-07</t>
+          <t>2016-03-29</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -36613,7 +36603,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>556647d2-1d36-4de2-afdd-3b6a64568a20</t>
+          <t>f3df3f9b-741b-4afd-834e-c9f2f2bb4782</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -36641,7 +36631,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>129</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -36661,7 +36651,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2008-11-28</t>
+          <t>2008-03-26</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -36677,7 +36667,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>a4a7e4bd-960e-44a5-888e-64e7c4bfcd03</t>
+          <t>556647d2-1d36-4de2-afdd-3b6a64568a20</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -36705,11 +36695,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -36725,7 +36715,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2007-06-18</t>
+          <t>2016-03-07</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -36741,7 +36731,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>d4b7269b-ae38-485d-9c42-0c2b1f066ebf</t>
+          <t>a4a7e4bd-960e-44a5-888e-64e7c4bfcd03</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -36769,11 +36759,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>151.11</t>
+          <t>66</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -36789,7 +36779,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2011-09-20</t>
+          <t>2008-11-28</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -36805,7 +36795,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>816bf234-a731-4758-9e37-93919b8a39df</t>
+          <t>d4b7269b-ae38-485d-9c42-0c2b1f066ebf</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -36833,7 +36823,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -36853,7 +36843,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2007-06-18</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -36869,7 +36859,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0cfadda3-7666-476f-a322-311dab614561</t>
+          <t>816bf234-a731-4758-9e37-93919b8a39df</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -36897,7 +36887,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>151.11</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -36917,7 +36907,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2016-09-18</t>
+          <t>2011-09-20</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -36929,7 +36919,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -36961,7 +36951,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -36981,7 +36971,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2016-09-23</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -36989,11 +36979,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5941ce14-61f9-4cc9-8df1-106eef22b60a</t>
+          <t>72e31902-aba0-4b27-b0f9-f41ddf7c6c01</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -37025,7 +37015,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -37045,7 +37035,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2012-12-06</t>
+          <t>2016-09-18</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -37053,7 +37043,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>116b6ea5-a2d3-450c-877f-697fe8842ff3</t>
+          <t>5941ce14-61f9-4cc9-8df1-106eef22b60a</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -37089,7 +37079,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>127</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -37109,7 +37099,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2015-10-05</t>
+          <t>2016-09-23</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -37117,11 +37107,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>488bc65c-4294-4108-a549-b3a7e6d46adf</t>
+          <t>116b6ea5-a2d3-450c-877f-697fe8842ff3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -37153,7 +37143,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>143</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -37173,7 +37163,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2012-12-06</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -37181,11 +37171,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>d220733a-acd0-4731-840b-1383e9ec051d</t>
+          <t>488bc65c-4294-4108-a549-b3a7e6d46adf</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -37217,11 +37207,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>144</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -37237,7 +37227,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2012-10-19</t>
+          <t>2015-10-05</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -37245,7 +37235,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>b6313f59-99df-4fdc-869f-0076d283ac05</t>
+          <t>d220733a-acd0-4731-840b-1383e9ec051d</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -37281,7 +37271,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -37301,15 +37291,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2015-12-19</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>b137e321-3591-4d21-a8c3-df51df60a067</t>
+          <t>b6313f59-99df-4fdc-869f-0076d283ac05</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -37345,11 +37335,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -37365,15 +37355,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2013-03-05</t>
+          <t>2012-10-19</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>c78e9f59-b95b-46bf-a02a-fda0de5a261e</t>
+          <t>b137e321-3591-4d21-a8c3-df51df60a067</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -37409,7 +37399,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -37429,7 +37419,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2016-06-04</t>
+          <t>2015-12-19</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -37437,11 +37427,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3db2a86d-2040-4def-b40f-4c7c8819a937</t>
+          <t>c78e9f59-b95b-46bf-a02a-fda0de5a261e</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -37473,7 +37463,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>119</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -37493,7 +37483,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2009-01-02</t>
+          <t>2013-03-05</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -37501,11 +37491,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>72e31902-aba0-4b27-b0f9-f41ddf7c6c01</t>
+          <t>3db2a86d-2040-4def-b40f-4c7c8819a937</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -37537,7 +37527,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -37557,7 +37547,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2011-06-18</t>
+          <t>2016-06-04</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -37601,11 +37591,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>135</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -37621,7 +37611,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2008-02-26</t>
+          <t>2009-01-02</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -37685,7 +37675,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2011-06-18</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -37749,7 +37739,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2016-02-21</t>
+          <t>2008-02-26</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -37813,7 +37803,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2014-01-08</t>
+          <t>2016-02-21</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -37877,7 +37867,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2012-11-19</t>
+          <t>2008-12-04</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -37941,7 +37931,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2008-10-20</t>
+          <t>2014-01-08</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -38005,7 +37995,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2008-10-24</t>
+          <t>2012-11-19</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -38069,7 +38059,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2008-05-23</t>
+          <t>2008-10-20</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -38133,7 +38123,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2009-12-23</t>
+          <t>2008-10-24</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -38197,7 +38187,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2008-03-15</t>
+          <t>2008-05-23</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -38261,7 +38251,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2012-05-27</t>
+          <t>2009-12-23</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -38325,7 +38315,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2008-03-15</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -38389,7 +38379,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2009-04-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -38453,7 +38443,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2011-10-01</t>
+          <t>2009-04-15</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -38517,7 +38507,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2014-02-17</t>
+          <t>2011-10-01</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -38581,7 +38571,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2017-05-19</t>
+          <t>2014-02-17</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -38645,7 +38635,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2008-08-22</t>
+          <t>2017-05-19</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -38709,7 +38699,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2012-12-22</t>
+          <t>2008-08-22</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -38773,7 +38763,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2014-10-25</t>
+          <t>2012-12-22</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -38837,7 +38827,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2009-08-12</t>
+          <t>2014-10-25</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -38901,11 +38891,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2009-08-12</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -38965,7 +38955,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2016-04-22</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -39029,7 +39019,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2010-09-13</t>
+          <t>2016-04-22</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -39093,7 +39083,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2011-02-14</t>
+          <t>2010-09-13</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -39157,7 +39147,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2011-02-14</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -39221,7 +39211,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2015-02-11</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -39285,7 +39275,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2008-02-22</t>
+          <t>2015-02-11</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -39349,7 +39339,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2008-02-25</t>
+          <t>2008-02-22</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -39413,7 +39403,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2008-02-25</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -39477,7 +39467,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2014-03-03</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -39521,7 +39511,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -39541,7 +39531,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2017-01-30</t>
+          <t>2014-03-03</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -39553,7 +39543,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -39585,11 +39575,11 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>153.37</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -39605,7 +39595,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2017-04-06</t>
+          <t>2017-01-30</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -39649,7 +39639,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>153.37</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -39669,7 +39659,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2017-04-17</t>
+          <t>2017-04-06</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -39713,7 +39703,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>159.55</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -39733,7 +39723,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2014-01-31</t>
+          <t>2017-04-17</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -39777,7 +39767,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>159.55</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -39797,7 +39787,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2008-12-04</t>
+          <t>2014-01-31</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -39843,7 +39833,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>147</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -39909,7 +39899,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -39975,7 +39965,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>59</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -40013,11 +40003,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>54c89470-f87d-43e5-9202-4f3503fc0264</t>
+          <t>9ea35e33-52c6-45c2-9b52-fbb6277101ca</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -40041,7 +40031,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>166</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -40079,11 +40069,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>dd0d63a1-b3c5-4059-a2e7-c5a590d671d7</t>
+          <t>63c0183e-4c30-4e38-bfff-ac6db09d1e9e</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -40145,11 +40135,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>85edcb0c-3b12-4eb0-a073-bcc918449621</t>
+          <t>0a6865de-637f-4e2e-a129-4a27a56cd9ef</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -40211,11 +40201,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>96605e89-5813-4c79-9f2a-14ddcc99fb97</t>
+          <t>8a89a7d4-a8ca-451b-a1d8-7d6a25c212ed</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -40277,7 +40267,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0ba7dd0e-b880-444a-9f08-e887449fc508</t>
+          <t>54c89470-f87d-43e5-9202-4f3503fc0264</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -40343,7 +40333,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>b39da358-6575-4acf-ad7f-6d202858a1bb</t>
+          <t>dd0d63a1-b3c5-4059-a2e7-c5a590d671d7</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -40409,7 +40399,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ad4a6966-0d7e-4b75-9e77-1b8c32eb483a</t>
+          <t>85edcb0c-3b12-4eb0-a073-bcc918449621</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -40475,7 +40465,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>6081809b-e080-438b-9552-90fe68f6853d</t>
+          <t>96605e89-5813-4c79-9f2a-14ddcc99fb97</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -40541,7 +40531,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ddaa898a-695f-4085-bb14-5d78bd82f4c5</t>
+          <t>0ba7dd0e-b880-444a-9f08-e887449fc508</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -40607,7 +40597,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ae22b4bd-9762-4976-ab9d-3ffa13b22f3c</t>
+          <t>b39da358-6575-4acf-ad7f-6d202858a1bb</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -40673,7 +40663,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4f5e0548-1f6a-4dde-a6cd-2f66c3af6171</t>
+          <t>ad4a6966-0d7e-4b75-9e77-1b8c32eb483a</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -40739,7 +40729,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>c09cb0bf-7068-40b5-a10a-9d5350afc74c</t>
+          <t>6081809b-e080-438b-9552-90fe68f6853d</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -40805,7 +40795,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1cf0e396-ddca-42f5-99bd-615fa117e59f</t>
+          <t>ddaa898a-695f-4085-bb14-5d78bd82f4c5</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -40871,7 +40861,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>e599e443-33b4-4fdb-b8a3-3b986c29ed4a</t>
+          <t>ae22b4bd-9762-4976-ab9d-3ffa13b22f3c</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -40937,7 +40927,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>e422d82b-5ef9-4ec0-8d43-f3e48a0de1e9</t>
+          <t>4f5e0548-1f6a-4dde-a6cd-2f66c3af6171</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -41003,7 +40993,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>76fed09f-3d80-422f-830c-857b0cb46d32</t>
+          <t>c09cb0bf-7068-40b5-a10a-9d5350afc74c</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -41069,7 +41059,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>9ea35e33-52c6-45c2-9b52-fbb6277101ca</t>
+          <t>1cf0e396-ddca-42f5-99bd-615fa117e59f</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -41135,7 +41125,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>6abeff82-4e74-4099-a1ca-d3e6379bccd7</t>
+          <t>e599e443-33b4-4fdb-b8a3-3b986c29ed4a</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -41163,7 +41153,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -41183,7 +41173,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2010-04-09</t>
+          <t>2011-04-23</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -41201,7 +41191,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>63c0183e-4c30-4e38-bfff-ac6db09d1e9e</t>
+          <t>e422d82b-5ef9-4ec0-8d43-f3e48a0de1e9</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -41229,7 +41219,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -41249,11 +41239,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2011-04-23</t>
+          <t>2010-03-26</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -41267,7 +41257,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0a6865de-637f-4e2e-a129-4a27a56cd9ef</t>
+          <t>76fed09f-3d80-422f-830c-857b0cb46d32</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -41295,7 +41285,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -41315,11 +41305,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-06-19</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -41333,7 +41323,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>45ecc59b-5d77-4eb1-8b22-3254d8d1bd55</t>
+          <t>6abeff82-4e74-4099-a1ca-d3e6379bccd7</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -41361,7 +41351,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>198</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -41381,11 +41371,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2010-12-21</t>
+          <t>2013-06-05</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -41399,7 +41389,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>b2d790d8-8cab-49f1-a379-718695da39c1</t>
+          <t>45ecc59b-5d77-4eb1-8b22-3254d8d1bd55</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -41427,7 +41417,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -41447,11 +41437,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2013-01-24</t>
+          <t>2010-04-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -41465,7 +41455,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>124ff244-b079-4a58-89bb-1fe5a954625f</t>
+          <t>b2d790d8-8cab-49f1-a379-718695da39c1</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -41493,7 +41483,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>34.85</t>
+          <t>98</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -41513,7 +41503,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2011-02-08</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -41531,7 +41521,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>75f019df-960e-4fcb-8881-15033b990bae</t>
+          <t>124ff244-b079-4a58-89bb-1fe5a954625f</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -41559,7 +41549,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>172.92</t>
+          <t>34.85</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -41579,7 +41569,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2010-12-21</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -41597,7 +41587,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>91fe52d9-0afa-4f99-8cb1-f38cc8a276c2</t>
+          <t>75f019df-960e-4fcb-8881-15033b990bae</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -41625,11 +41615,11 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>172.92</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -41645,7 +41635,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2008-02-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -41663,7 +41653,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>73e9720a-224a-4836-8d13-498f6693daa1</t>
+          <t>91fe52d9-0afa-4f99-8cb1-f38cc8a276c2</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -41691,7 +41681,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>170.21</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -41711,7 +41701,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2013-05-18</t>
+          <t>2011-02-08</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -41729,7 +41719,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>dba9a3ed-82f2-4341-8230-24e02a057395</t>
+          <t>73e9720a-224a-4836-8d13-498f6693daa1</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -41757,7 +41747,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>167.63</t>
+          <t>170.21</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -41777,7 +41767,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2012-06-02</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -41795,7 +41785,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>d536ab31-9ce7-4234-838c-7fbe84f48a7b</t>
+          <t>dba9a3ed-82f2-4341-8230-24e02a057395</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -41823,7 +41813,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>173.84</t>
+          <t>167.63</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -41843,7 +41833,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2014-03-06</t>
+          <t>2008-02-13</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -41861,7 +41851,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>8a75c1b0-5f3e-4753-aaa8-e813d06231f5</t>
+          <t>d536ab31-9ce7-4234-838c-7fbe84f48a7b</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -41889,7 +41879,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>174.93</t>
+          <t>173.84</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -41909,7 +41899,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
+          <t>2013-05-18</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -41927,7 +41917,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>8d40883d-47bf-4a28-9d1a-e3da27531993</t>
+          <t>8a75c1b0-5f3e-4753-aaa8-e813d06231f5</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -41955,7 +41945,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>176.53</t>
+          <t>174.93</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -41975,7 +41965,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2012-04-12</t>
+          <t>2012-06-02</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -41993,7 +41983,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1da7ac7c-2861-422c-90e8-12a8f2392c5c</t>
+          <t>8d40883d-47bf-4a28-9d1a-e3da27531993</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -42021,7 +42011,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>176.53</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -42041,7 +42031,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2010-05-25</t>
+          <t>2014-03-06</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -42059,7 +42049,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>8a89a7d4-a8ca-451b-a1d8-7d6a25c212ed</t>
+          <t>1da7ac7c-2861-422c-90e8-12a8f2392c5c</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -42087,7 +42077,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>112.3</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -42107,7 +42097,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2017-04-19</t>
+          <t>2014-03-23</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -42153,7 +42143,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>38.76</t>
+          <t>112.3</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -42173,7 +42163,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2014-11-15</t>
+          <t>2012-04-12</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -42219,7 +42209,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>162.07</t>
+          <t>38.76</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -42239,7 +42229,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2010-03-26</t>
+          <t>2010-05-25</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -42285,7 +42275,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>162.07</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -42305,7 +42295,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2013-06-16</t>
+          <t>2017-04-19</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -42351,7 +42341,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>159.21</t>
+          <t>146</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -42371,7 +42361,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2014-11-29</t>
+          <t>2014-11-15</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -42417,7 +42407,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>159.21</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -42437,7 +42427,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2015-06-06</t>
+          <t>2013-06-16</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -42483,7 +42473,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -42503,7 +42493,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2007-10-07</t>
+          <t>2014-11-29</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -42549,7 +42539,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>169</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -42569,7 +42559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2013-11-13</t>
+          <t>2015-06-06</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -42615,7 +42605,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -42635,7 +42625,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2011-11-23</t>
+          <t>2007-10-07</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -42701,7 +42691,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2009-10-08</t>
+          <t>2013-11-13</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -42767,7 +42757,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2008-09-07</t>
+          <t>2011-11-23</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -42833,7 +42823,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2009-12-09</t>
+          <t>2009-10-08</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -42899,7 +42889,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2014-06-19</t>
+          <t>2008-09-07</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -42965,7 +42955,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2014-06-16</t>
+          <t>2009-12-09</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -43031,7 +43021,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2008-03-02</t>
+          <t>2014-06-16</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -43097,7 +43087,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2015-03-03</t>
+          <t>2008-03-02</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -43163,7 +43153,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2014-04-23</t>
+          <t>2015-03-03</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -43229,7 +43219,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2013-06-05</t>
+          <t>2014-04-23</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -43737,7 +43727,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>167.05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -43803,7 +43793,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>37.54</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -43869,7 +43859,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>35.88</t>
+          <t>167.05</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -43935,7 +43925,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>159.03</t>
+          <t>37.54</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -44001,7 +43991,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>179.37</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -44067,7 +44057,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>159.03</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -44133,7 +44123,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>171.22</t>
+          <t>179.37</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -44199,7 +44189,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>104.49</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -44265,7 +44255,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>116.23</t>
+          <t>171.22</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -44331,7 +44321,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>45.76</t>
+          <t>104.49</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -44397,7 +44387,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>116.23</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -44463,7 +44453,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>117.95</t>
+          <t>45.76</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -44529,7 +44519,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>36.86</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -44595,7 +44585,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>158.19</t>
+          <t>117.95</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -44661,7 +44651,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>172.52</t>
+          <t>36.86</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -44727,7 +44717,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>158.19</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -44793,7 +44783,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>172.52</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -44859,7 +44849,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -44925,7 +44915,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>113.82</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -44991,7 +44981,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -45057,7 +45047,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>176</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -45123,7 +45113,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>178</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -45189,7 +45179,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>113.82</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -45255,7 +45245,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>180</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -45321,7 +45311,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>184</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -45387,7 +45377,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -45453,7 +45443,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>162.58</t>
+          <t>190</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -45519,11 +45509,11 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>108.22</t>
+          <t>195</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
@@ -45585,11 +45575,11 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>99</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
@@ -45651,11 +45641,11 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>162.58</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
@@ -45717,7 +45707,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>108.22</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -45783,7 +45773,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -45849,7 +45839,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>40.94</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -45915,7 +45905,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>96.46</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -45981,7 +45971,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -46047,7 +46037,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>171.27</t>
+          <t>96.46</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -46113,7 +46103,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -46179,7 +46169,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>171.27</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -46245,7 +46235,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="L219" t="n">
@@ -46311,7 +46301,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>105.8</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -46377,7 +46367,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -46443,7 +46433,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>105.8</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -46509,7 +46499,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -46575,7 +46565,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>145</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -46641,7 +46631,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>148</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -46707,7 +46697,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>152</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -46773,7 +46763,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>156</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -46839,7 +46829,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>162</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -46905,7 +46895,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>165</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -46971,7 +46961,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -47037,7 +47027,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>160.77</t>
+          <t>172</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -47103,7 +47093,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>160.77</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -47169,11 +47159,11 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
@@ -47235,7 +47225,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -47471,7 +47461,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>3b00ac46-fe2a-4037-9bae-babdfad6d761</t>
+          <t>d095f8b4-21ab-4bd3-8d4f-63047f5f047f</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -47537,7 +47527,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>d095f8b4-21ab-4bd3-8d4f-63047f5f047f</t>
+          <t>3b00ac46-fe2a-4037-9bae-babdfad6d761</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -49947,7 +49937,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>e1eec7fc-394f-42cb-bad9-e8ed3bea19df</t>
+          <t>8fb5b157-9f9f-4d60-8b8d-69746edd255d</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -50015,7 +50005,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>06c91585-ef2d-47af-9e25-188a0b4949e7</t>
+          <t>e1eec7fc-394f-42cb-bad9-e8ed3bea19df</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -50083,7 +50073,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>14b0cf0c-712d-47d3-b954-16cd0363b1f1</t>
+          <t>06c91585-ef2d-47af-9e25-188a0b4949e7</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -50151,11 +50141,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>43d60ece-b34b-45c6-bc8f-c465158b18a7</t>
+          <t>14b0cf0c-712d-47d3-b954-16cd0363b1f1</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -50219,7 +50209,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>34b4ee80-b143-4894-b864-4fada8911920</t>
+          <t>43d60ece-b34b-45c6-bc8f-c465158b18a7</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -50287,7 +50277,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>f9f3bde3-2298-4064-9a06-7552d3b7aef5</t>
+          <t>34b4ee80-b143-4894-b864-4fada8911920</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -50355,7 +50345,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>241cecad-0c6b-4c27-9dba-d792bea659e8</t>
+          <t>f9f3bde3-2298-4064-9a06-7552d3b7aef5</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -50423,7 +50413,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>eae8e523-6b1d-4a31-bf37-fe61e798dd5e</t>
+          <t>241cecad-0c6b-4c27-9dba-d792bea659e8</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -50473,7 +50463,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2009-10-29</t>
+          <t>2008-05-21</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -50491,7 +50481,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>bc35ef4d-2ac9-47d3-9b4f-5f2f91d14647</t>
+          <t>eae8e523-6b1d-4a31-bf37-fe61e798dd5e</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -50541,7 +50531,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2008-05-11</t>
+          <t>2009-10-29</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -50559,7 +50549,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>60f77ab7-109b-4506-aee8-e2f8776c1a37</t>
+          <t>bc35ef4d-2ac9-47d3-9b4f-5f2f91d14647</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -50609,7 +50599,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2014-08-04</t>
+          <t>2008-05-11</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -50627,7 +50617,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>1269fac3-67ca-4eaa-9ef2-374dc299939c</t>
+          <t>60f77ab7-109b-4506-aee8-e2f8776c1a37</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -50677,7 +50667,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2015-01-29</t>
+          <t>2014-08-04</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -50695,7 +50685,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>12eb6a53-297b-48cc-adca-45136f3b0472</t>
+          <t>1269fac3-67ca-4eaa-9ef2-374dc299939c</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -50745,7 +50735,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2015-01-15</t>
+          <t>2015-01-29</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -50763,7 +50753,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>2e83c33d-15cb-4d67-bf1d-775f8641162f</t>
+          <t>12eb6a53-297b-48cc-adca-45136f3b0472</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -50813,7 +50803,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2013-12-04</t>
+          <t>2015-01-15</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -50831,7 +50821,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>af04e587-dbfe-40f1-9b9e-00b92994d27d</t>
+          <t>2e83c33d-15cb-4d67-bf1d-775f8641162f</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -50881,7 +50871,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2010-08-25</t>
+          <t>2013-12-04</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -50899,7 +50889,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>4afab41f-380a-4019-ac42-c5dab9912ee0</t>
+          <t>af04e587-dbfe-40f1-9b9e-00b92994d27d</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -50949,7 +50939,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2015-11-17</t>
+          <t>2010-08-25</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -50967,7 +50957,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>1a55b4ec-b76c-4ecf-871c-259dc7d2c506</t>
+          <t>4afab41f-380a-4019-ac42-c5dab9912ee0</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -51017,7 +51007,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-11-17</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -51035,7 +51025,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>446096bc-d08a-41ef-81b8-aa5f82176327</t>
+          <t>1a55b4ec-b76c-4ecf-871c-259dc7d2c506</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -51085,7 +51075,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2010-08-15</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -51103,7 +51093,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>192542be-93a2-4760-8481-b0828e22031e</t>
+          <t>446096bc-d08a-41ef-81b8-aa5f82176327</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -51153,7 +51143,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2015-03-07</t>
+          <t>2010-08-15</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -51171,7 +51161,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>7b9511fd-6725-40a5-b19a-d63bf53cccc1</t>
+          <t>192542be-93a2-4760-8481-b0828e22031e</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -51221,7 +51211,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2011-07-15</t>
+          <t>2015-03-07</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -51239,7 +51229,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>3b84d742-0cdc-43d4-a81b-90ae6e853201</t>
+          <t>7b9511fd-6725-40a5-b19a-d63bf53cccc1</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -51289,7 +51279,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2011-09-11</t>
+          <t>2011-07-15</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -51307,7 +51297,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>4f08d387-790e-4533-be08-04dd15302de9</t>
+          <t>3b84d742-0cdc-43d4-a81b-90ae6e853201</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -51357,7 +51347,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2017-03-28</t>
+          <t>2011-09-11</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -51375,7 +51365,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>acc44da9-2440-4251-9b7e-96af1bb61e9f</t>
+          <t>4f08d387-790e-4533-be08-04dd15302de9</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -51425,7 +51415,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2016-10-02</t>
+          <t>2017-03-28</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -51443,7 +51433,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>12d8e6ef-a063-49c6-8b57-0f19427c981e</t>
+          <t>acc44da9-2440-4251-9b7e-96af1bb61e9f</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -51493,7 +51483,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2013-07-15</t>
+          <t>2016-10-02</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -51511,7 +51501,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>746fdd39-d861-4d18-b387-e85af9f4a0fd</t>
+          <t>12d8e6ef-a063-49c6-8b57-0f19427c981e</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -51561,7 +51551,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2011-07-25</t>
+          <t>2013-07-15</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -51579,7 +51569,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>c12d8fa7-fa3a-4572-8a52-d6d5ae1967bf</t>
+          <t>746fdd39-d861-4d18-b387-e85af9f4a0fd</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -51629,7 +51619,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2016-07-25</t>
+          <t>2011-07-25</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -51647,7 +51637,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>c0e56ca4-7310-49a0-a795-7acf4aeacca5</t>
+          <t>c12d8fa7-fa3a-4572-8a52-d6d5ae1967bf</t>
         </is>
       </c>
       <c r="F300" t="n">
@@ -51697,7 +51687,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2013-10-30</t>
+          <t>2016-07-25</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -51715,7 +51705,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>73cf8757-0b20-4bda-ac80-956aa9ce1d6c</t>
+          <t>c0e56ca4-7310-49a0-a795-7acf4aeacca5</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -51765,7 +51755,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2007-08-26</t>
+          <t>2013-10-30</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -51783,7 +51773,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>431e7e39-339a-4712-9559-d000c1f01ca0</t>
+          <t>73cf8757-0b20-4bda-ac80-956aa9ce1d6c</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -51833,7 +51823,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2009-08-02</t>
+          <t>2007-08-26</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -51851,7 +51841,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>cbe1c4b5-052c-4567-82ca-ecd6ea1a58cc</t>
+          <t>431e7e39-339a-4712-9559-d000c1f01ca0</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -51901,7 +51891,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2011-12-23</t>
+          <t>2009-08-02</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -51919,7 +51909,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>90a94d48-f4db-49d2-9228-0cb666f050be</t>
+          <t>cbe1c4b5-052c-4567-82ca-ecd6ea1a58cc</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -51969,7 +51959,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2009-08-19</t>
+          <t>2011-12-23</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -51987,7 +51977,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>10e399c4-bb17-4157-81af-00769df5fbd5</t>
+          <t>90a94d48-f4db-49d2-9228-0cb666f050be</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -52037,7 +52027,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2013-09-04</t>
+          <t>2009-08-19</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -52055,7 +52045,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>8af9ac36-2c43-4ac5-b507-21f87c2cc1a3</t>
+          <t>10e399c4-bb17-4157-81af-00769df5fbd5</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -52105,11 +52095,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2011-04-20</t>
+          <t>2013-09-04</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -52123,7 +52113,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>8fb5b157-9f9f-4d60-8b8d-69746edd255d</t>
+          <t>8af9ac36-2c43-4ac5-b507-21f87c2cc1a3</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -52173,7 +52163,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2011-04-21</t>
+          <t>2011-04-20</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -52241,7 +52231,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2008-06-02</t>
+          <t>2011-04-21</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -52309,7 +52299,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2014-07-13</t>
+          <t>2008-06-02</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -52377,7 +52367,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2016-06-13</t>
+          <t>2014-07-13</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -52445,7 +52435,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2014-05-19</t>
+          <t>2016-06-13</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -52513,7 +52503,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2012-08-05</t>
+          <t>2014-05-19</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -52581,7 +52571,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2016-06-16</t>
+          <t>2012-08-05</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -52649,7 +52639,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2011-02-22</t>
+          <t>2016-06-16</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -52717,7 +52707,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2015-04-10</t>
+          <t>2011-02-22</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -52785,7 +52775,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2012-04-11</t>
+          <t>2015-04-10</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -52853,7 +52843,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2012-04-11</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -52921,7 +52911,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2016-11-11</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -52989,7 +52979,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2011-01-24</t>
+          <t>2016-11-11</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -53057,7 +53047,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2012-11-16</t>
+          <t>2011-01-24</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -53125,7 +53115,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2009-07-28</t>
+          <t>2012-11-16</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -53193,7 +53183,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2008-10-19</t>
+          <t>2009-07-28</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -53261,7 +53251,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2013-08-30</t>
+          <t>2008-10-19</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -53329,7 +53319,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2008-05-21</t>
+          <t>2013-08-30</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -55505,7 +55495,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2007-11-14</t>
+          <t>2013-12-18</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -55573,11 +55563,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2008-06-09</t>
+          <t>2007-11-14</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -55641,7 +55631,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2015-12-17</t>
+          <t>2008-06-09</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -55709,7 +55699,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2015-12-28</t>
+          <t>2015-12-17</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -55777,7 +55767,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-12-28</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -55845,7 +55835,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2013-01-08</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -55913,7 +55903,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2012-08-02</t>
+          <t>2013-01-08</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -55981,7 +55971,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2017-01-18</t>
+          <t>2012-08-02</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -56049,7 +56039,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2010-07-20</t>
+          <t>2017-01-18</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -56117,7 +56107,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2010-07-23</t>
+          <t>2010-07-20</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -56185,7 +56175,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2013-05-29</t>
+          <t>2010-07-23</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -56253,7 +56243,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2016-12-21</t>
+          <t>2013-05-29</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -56321,7 +56311,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2010-05-21</t>
+          <t>2016-12-21</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -56389,7 +56379,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2012-03-17</t>
+          <t>2010-05-21</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -56457,7 +56447,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2013-06-25</t>
+          <t>2012-03-17</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -56475,7 +56465,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>6812b677-d447-4292-a872-8d330a207851</t>
+          <t>1f91891a-34d0-47f4-9d2f-1333a59949be</t>
         </is>
       </c>
       <c r="F371" t="n">
@@ -56525,7 +56515,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2007-07-31</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -56543,7 +56533,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>1f91891a-34d0-47f4-9d2f-1333a59949be</t>
+          <t>6812b677-d447-4292-a872-8d330a207851</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -56593,7 +56583,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2007-07-22</t>
+          <t>2013-06-25</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -56661,7 +56651,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2011-08-08</t>
+          <t>2007-07-31</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -56729,7 +56719,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2008-07-24</t>
+          <t>2007-07-22</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -56797,7 +56787,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2014-08-07</t>
+          <t>2011-08-08</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -56865,7 +56855,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2008-10-27</t>
+          <t>2008-07-24</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -56933,7 +56923,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2010-11-10</t>
+          <t>2014-08-07</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -57001,7 +56991,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2007-11-24</t>
+          <t>2008-10-27</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -57069,7 +57059,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2013-12-21</t>
+          <t>2010-11-10</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -57137,7 +57127,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2008-07-05</t>
+          <t>2007-11-24</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -57205,7 +57195,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2013-12-15</t>
+          <t>2013-12-21</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -57273,7 +57263,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2013-12-18</t>
+          <t>2008-07-05</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -57341,7 +57331,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2013-12-15</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -57409,7 +57399,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2014-06-22</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -57477,7 +57467,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2009-12-17</t>
+          <t>2014-06-22</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -57545,7 +57535,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2012-05-23</t>
+          <t>2009-12-17</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -57613,7 +57603,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2012-05-08</t>
+          <t>2012-05-23</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -57681,7 +57671,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2016-03-23</t>
+          <t>2012-05-08</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -57749,7 +57739,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2017-02-01</t>
+          <t>2016-03-23</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -57817,7 +57807,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2008-03-24</t>
+          <t>2017-02-01</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -57885,7 +57875,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2011-10-20</t>
+          <t>2009-04-04</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -57953,7 +57943,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2007-06-14</t>
+          <t>2008-03-24</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -58021,7 +58011,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2017-03-13</t>
+          <t>2011-10-20</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -58089,7 +58079,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2011-09-12</t>
+          <t>2007-06-14</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -58157,7 +58147,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2014-02-07</t>
+          <t>2017-03-13</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -58225,7 +58215,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2011-09-12</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -58243,7 +58233,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>5ebbe97a-276b-4b6c-9577-766a7b735586</t>
+          <t>5e1d046d-0993-45a4-95e4-95353d9481d6</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -58293,7 +58283,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2008-11-15</t>
+          <t>2014-02-07</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -58311,7 +58301,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>5e1d046d-0993-45a4-95e4-95353d9481d6</t>
+          <t>5ebbe97a-276b-4b6c-9577-766a7b735586</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -58361,7 +58351,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2014-12-07</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -58429,7 +58419,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2008-01-14</t>
+          <t>2008-11-15</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -58497,7 +58487,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2014-12-07</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -58515,7 +58505,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>4ccde920-b7dc-463d-bccb-119fbcf40116</t>
+          <t>df95f4fe-c410-45a9-84f4-1c579eb4f28c</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -58565,7 +58555,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2011-12-22</t>
+          <t>2008-01-14</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -58583,7 +58573,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>df95f4fe-c410-45a9-84f4-1c579eb4f28c</t>
+          <t>4ccde920-b7dc-463d-bccb-119fbcf40116</t>
         </is>
       </c>
       <c r="F402" t="n">
@@ -58633,7 +58623,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2010-10-10</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -58651,7 +58641,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>6faaae52-c64d-44ca-b56b-b344e0ad0871</t>
+          <t>570b8d12-c295-4d06-b639-2e116ac33e0d</t>
         </is>
       </c>
       <c r="F403" t="n">
@@ -58701,7 +58691,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2015-09-22</t>
+          <t>2011-12-22</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -58719,7 +58709,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>5ca8aa39-2bfa-44d4-9d8b-47e5f64c7fa6</t>
+          <t>6faaae52-c64d-44ca-b56b-b344e0ad0871</t>
         </is>
       </c>
       <c r="F404" t="n">
@@ -58769,7 +58759,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2007-11-03</t>
+          <t>2010-10-10</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -58787,7 +58777,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>570b8d12-c295-4d06-b639-2e116ac33e0d</t>
+          <t>5ca8aa39-2bfa-44d4-9d8b-47e5f64c7fa6</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -58837,7 +58827,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2016-09-04</t>
+          <t>2015-09-22</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -58905,7 +58895,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2012-09-25</t>
+          <t>2007-11-03</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -58973,7 +58963,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2015-09-02</t>
+          <t>2016-09-04</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -59041,11 +59031,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2012-09-25</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -59109,11 +59099,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2016-04-28</t>
+          <t>2015-09-02</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -59177,7 +59167,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2014-07-15</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -59245,7 +59235,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2008-06-07</t>
+          <t>2016-04-28</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -59313,7 +59303,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2007-12-19</t>
+          <t>2014-07-15</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -59381,7 +59371,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2010-12-07</t>
+          <t>2008-06-07</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -59449,7 +59439,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2014-07-21</t>
+          <t>2007-12-19</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -59467,7 +59457,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>1ab22691-d264-4f7b-810d-8bed482eb04f</t>
+          <t>3e44959d-045a-4431-93f6-f3802a4ed4e6</t>
         </is>
       </c>
       <c r="F415" t="n">
@@ -59517,7 +59507,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2014-07-27</t>
+          <t>2010-12-07</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -59535,7 +59525,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>3e44959d-045a-4431-93f6-f3802a4ed4e6</t>
+          <t>1ab22691-d264-4f7b-810d-8bed482eb04f</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -59585,7 +59575,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2007-12-04</t>
+          <t>2014-07-21</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -59653,7 +59643,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2014-07-27</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -59721,7 +59711,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2010-09-26</t>
+          <t>2007-12-04</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -59789,7 +59779,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2011-04-02</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -59857,7 +59847,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2014-07-28</t>
+          <t>2010-09-26</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -59925,7 +59915,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2016-04-17</t>
+          <t>2011-04-02</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -59993,7 +59983,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2010-12-22</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -60061,7 +60051,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2016-04-19</t>
+          <t>2016-04-17</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -60129,7 +60119,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2012-08-26</t>
+          <t>2010-12-22</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -60197,7 +60187,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2010-09-17</t>
+          <t>2016-04-19</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -60265,7 +60255,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2016-06-10</t>
+          <t>2012-08-26</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -60283,7 +60273,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>fd8d5b39-7a27-4db2-9a6c-4385edc12043</t>
+          <t>75e948d6-297b-4cc3-b08e-e7be578b5468</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -60333,7 +60323,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2010-09-19</t>
+          <t>2010-09-17</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -60351,7 +60341,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>75e948d6-297b-4cc3-b08e-e7be578b5468</t>
+          <t>fd8d5b39-7a27-4db2-9a6c-4385edc12043</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -60401,7 +60391,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2014-05-21</t>
+          <t>2016-06-10</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -60419,7 +60409,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2d9869f2-0edf-4972-a7a1-2209b544ab81</t>
+          <t>c945d0c2-d0a5-4a3c-a4fb-fd42d43b6ef1</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -60469,7 +60459,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2014-05-20</t>
+          <t>2010-09-19</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -60487,7 +60477,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>c945d0c2-d0a5-4a3c-a4fb-fd42d43b6ef1</t>
+          <t>2d9869f2-0edf-4972-a7a1-2209b544ab81</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -60537,7 +60527,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2013-01-05</t>
+          <t>2014-05-21</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -60605,7 +60595,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2013-01-07</t>
+          <t>2014-05-20</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -60673,7 +60663,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2014-05-15</t>
+          <t>2013-01-05</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -60741,7 +60731,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2016-06-07</t>
+          <t>2013-01-07</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -60809,7 +60799,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2016-06-06</t>
+          <t>2014-05-15</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -60827,7 +60817,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>e7449314-967f-47cf-9104-fdc458f05bae</t>
+          <t>4f22d99f-8ed5-434f-a6a2-a95bd0598fc4</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -60877,7 +60867,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2014-05-31</t>
+          <t>2016-06-07</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -60895,7 +60885,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>4f22d99f-8ed5-434f-a6a2-a95bd0598fc4</t>
+          <t>1a3680a2-c4e7-414f-a6ff-23259553e772</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -60945,7 +60935,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2009-11-27</t>
+          <t>2016-06-06</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -60963,7 +60953,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>1a3680a2-c4e7-414f-a6ff-23259553e772</t>
+          <t>e7449314-967f-47cf-9104-fdc458f05bae</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -61013,7 +61003,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2014-05-28</t>
+          <t>2014-05-31</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -61081,7 +61071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2009-01-13</t>
+          <t>2009-11-27</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -61149,7 +61139,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2012-06-29</t>
+          <t>2014-05-28</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -61217,7 +61207,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2012-06-30</t>
+          <t>2012-06-29</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -61285,7 +61275,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2009-01-09</t>
+          <t>2009-01-13</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -61353,7 +61343,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2013-01-15</t>
+          <t>2012-06-30</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -61421,7 +61411,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2013-01-16</t>
+          <t>2009-01-09</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -61489,7 +61479,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2011-02-15</t>
+          <t>2013-01-15</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -61557,7 +61547,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2013-05-07</t>
+          <t>2013-01-16</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -61625,7 +61615,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2013-05-13</t>
+          <t>2011-02-15</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -61693,7 +61683,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2016-02-01</t>
+          <t>2013-05-07</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -61761,7 +61751,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2017-01-21</t>
+          <t>2013-05-13</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -61829,7 +61819,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2010-07-24</t>
+          <t>2016-02-01</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -61897,7 +61887,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2016-02-20</t>
+          <t>2017-01-21</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -61965,7 +61955,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2015-02-25</t>
+          <t>2010-07-24</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -62033,7 +62023,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2016-02-20</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -62101,7 +62091,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2016-02-13</t>
+          <t>2015-02-25</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -62169,7 +62159,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2015-02-17</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -62237,7 +62227,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2008-02-27</t>
+          <t>2016-02-13</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -62305,7 +62295,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2010-07-05</t>
+          <t>2015-02-17</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -62373,7 +62363,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2017-01-05</t>
+          <t>2008-02-27</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -62441,7 +62431,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2014-05-12</t>
+          <t>2010-07-05</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -62509,7 +62499,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2016-12-24</t>
+          <t>2017-01-05</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -62577,7 +62567,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2014-05-13</t>
+          <t>2014-05-12</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -62645,7 +62635,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2016-12-24</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -62713,7 +62703,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2013-03-27</t>
+          <t>2014-05-13</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -62781,7 +62771,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -62849,7 +62839,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2013-03-27</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -62917,7 +62907,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2011-06-07</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -62985,7 +62975,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2009-03-06</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -63053,7 +63043,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2015-04-09</t>
+          <t>2011-06-07</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -63121,7 +63111,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2013-03-20</t>
+          <t>2009-03-06</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -63189,7 +63179,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2015-04-02</t>
+          <t>2015-04-09</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -63257,7 +63247,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2010-05-31</t>
+          <t>2013-03-20</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -63325,7 +63315,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2008-04-07</t>
+          <t>2015-04-02</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -63393,7 +63383,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2010-05-26</t>
+          <t>2010-05-31</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -63461,7 +63451,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2008-04-01</t>
+          <t>2008-04-07</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -63529,7 +63519,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2012-04-26</t>
+          <t>2010-05-26</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -63597,7 +63587,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2016-11-07</t>
+          <t>2008-04-01</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -63665,7 +63655,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2012-04-26</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -63733,7 +63723,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2010-05-12</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -63801,7 +63791,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2016-11-06</t>
+          <t>2016-11-07</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -63869,7 +63859,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2017-04-01</t>
+          <t>2010-05-12</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -63937,7 +63927,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2010-05-17</t>
+          <t>2016-11-06</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -64005,7 +63995,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2014-01-14</t>
+          <t>2017-04-01</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -64073,7 +64063,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2013-08-04</t>
+          <t>2010-05-17</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -64091,7 +64081,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>066902df-fa82-46d8-b33c-c7e244f5b792</t>
+          <t>07eb6739-0e47-4e8a-a9f9-6abbee1bae0c</t>
         </is>
       </c>
       <c r="F483" t="n">
@@ -64141,7 +64131,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2013-08-02</t>
+          <t>2014-01-14</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -64159,7 +64149,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>07eb6739-0e47-4e8a-a9f9-6abbee1bae0c</t>
+          <t>066902df-fa82-46d8-b33c-c7e244f5b792</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -64209,7 +64199,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2010-05-08</t>
+          <t>2013-08-04</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -64277,7 +64267,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2012-03-25</t>
+          <t>2013-08-02</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -64345,7 +64335,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2007-07-01</t>
+          <t>2010-05-08</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -64413,7 +64403,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2014-01-24</t>
+          <t>2012-03-25</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -64481,7 +64471,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2014-01-22</t>
+          <t>2007-07-01</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -64549,7 +64539,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2009-05-13</t>
+          <t>2014-01-24</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -64617,7 +64607,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2009-05-11</t>
+          <t>2014-01-22</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -64685,7 +64675,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2009-05-13</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -64753,7 +64743,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2015-04-29</t>
+          <t>2009-05-11</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -64821,7 +64811,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2011-08-30</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -64889,7 +64879,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2015-04-29</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -64907,7 +64897,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>4352cc4a-fdd5-42d2-a197-1ccadfcc3e3c</t>
+          <t>9ef12622-1e29-4407-8a1e-66b5cbf3337f</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -64957,7 +64947,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2008-12-31</t>
+          <t>2011-08-30</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -64975,7 +64965,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>9ef12622-1e29-4407-8a1e-66b5cbf3337f</t>
+          <t>4352cc4a-fdd5-42d2-a197-1ccadfcc3e3c</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -65025,7 +65015,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2011-08-22</t>
+          <t>2008-12-31</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -65093,7 +65083,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2013-06-22</t>
+          <t>2011-08-22</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -65161,7 +65151,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2011-08-26</t>
+          <t>2013-06-22</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -65229,7 +65219,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2013-06-09</t>
+          <t>2011-08-26</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -65297,7 +65287,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2011-08-14</t>
+          <t>2013-06-09</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -65365,7 +65355,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2011-08-15</t>
+          <t>2011-08-14</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -65433,7 +65423,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2014-11-26</t>
+          <t>2011-08-15</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -65501,7 +65491,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2011-08-16</t>
+          <t>2014-11-26</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -65569,7 +65559,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2007-07-30</t>
+          <t>2011-08-16</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -65637,7 +65627,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2017-04-26</t>
+          <t>2007-07-30</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -65705,7 +65695,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2015-06-21</t>
+          <t>2017-04-26</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -65773,7 +65763,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2017-04-29</t>
+          <t>2015-06-21</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -65841,7 +65831,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2017-04-24</t>
+          <t>2017-04-29</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -65909,7 +65899,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2016-11-26</t>
+          <t>2017-04-24</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -65977,7 +65967,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2010-03-09</t>
+          <t>2016-11-26</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -66045,7 +66035,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2010-03-09</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -66113,7 +66103,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2008-12-18</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -66181,7 +66171,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2015-06-18</t>
+          <t>2008-12-18</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -66249,7 +66239,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2012-01-23</t>
+          <t>2015-06-18</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -66317,7 +66307,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2012-01-23</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -66453,7 +66443,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2012-01-27</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -66521,7 +66511,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2012-01-27</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -66589,7 +66579,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2014-01-09</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -66657,7 +66647,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2010-03-03</t>
+          <t>2014-01-09</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -66725,7 +66715,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2010-03-03</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -66793,7 +66783,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2011-01-20</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -66861,7 +66851,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2009-07-20</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -66929,7 +66919,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2015-08-18</t>
+          <t>2009-07-20</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -66997,7 +66987,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2013-11-09</t>
+          <t>2015-08-18</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -67065,7 +67055,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2007-09-20</t>
+          <t>2013-11-09</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -67133,7 +67123,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2007-09-07</t>
+          <t>2007-09-20</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -67201,7 +67191,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2012-01-06</t>
+          <t>2007-09-07</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -67269,7 +67259,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2009-07-10</t>
+          <t>2012-01-06</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -67337,7 +67327,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2009-07-09</t>
+          <t>2009-07-10</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -67405,7 +67395,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2015-08-09</t>
+          <t>2009-07-09</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -67473,7 +67463,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2011-01-27</t>
+          <t>2015-08-09</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -67491,7 +67481,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>06707731-517b-434c-81e1-793889a8132e</t>
+          <t>be4b68e5-0631-4f1a-811f-4067891f818c</t>
         </is>
       </c>
       <c r="F533" t="n">
@@ -67541,7 +67531,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2008-07-29</t>
+          <t>2011-01-27</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -67559,7 +67549,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>be4b68e5-0631-4f1a-811f-4067891f818c</t>
+          <t>06707731-517b-434c-81e1-793889a8132e</t>
         </is>
       </c>
       <c r="F534" t="n">
@@ -67609,7 +67599,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2008-07-31</t>
+          <t>2008-07-29</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -67677,7 +67667,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2008-07-31</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -67745,7 +67735,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2010-01-19</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -67813,7 +67803,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2012-11-28</t>
+          <t>2010-01-19</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -67881,7 +67871,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2012-11-29</t>
+          <t>2012-11-28</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -67949,7 +67939,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2014-11-06</t>
+          <t>2012-11-29</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -68017,7 +68007,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2011-01-09</t>
+          <t>2014-11-06</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -68085,7 +68075,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2016-08-30</t>
+          <t>2011-01-09</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -68153,7 +68143,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>2014-08-12</t>
+          <t>2016-08-30</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -68221,7 +68211,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>2010-01-11</t>
+          <t>2014-08-12</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -68239,7 +68229,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>99ca5905-3d14-4bb3-9db8-1413a2b95146</t>
+          <t>b7c9536e-e816-46d9-a8c2-e462c913b105</t>
         </is>
       </c>
       <c r="F544" t="n">
@@ -68289,7 +68279,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>2014-08-15</t>
+          <t>2010-01-11</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -68307,7 +68297,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>b7c9536e-e816-46d9-a8c2-e462c913b105</t>
+          <t>99ca5905-3d14-4bb3-9db8-1413a2b95146</t>
         </is>
       </c>
       <c r="F545" t="n">
@@ -68425,7 +68415,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>2010-01-06</t>
+          <t>2014-08-15</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -68493,7 +68483,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2008-10-15</t>
+          <t>2010-01-06</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -68561,7 +68551,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2008-10-15</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -68629,7 +68619,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>2008-10-28</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -68697,7 +68687,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2008-10-25</t>
+          <t>2008-10-28</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -68765,7 +68755,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2008-10-25</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -68833,7 +68823,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>2007-10-24</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -68901,7 +68891,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>2009-09-21</t>
+          <t>2007-10-24</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -68969,7 +68959,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>2011-11-08</t>
+          <t>2009-09-21</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -69037,7 +69027,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>2009-10-07</t>
+          <t>2011-11-08</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -69105,7 +69095,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>2007-10-16</t>
+          <t>2009-10-07</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -69173,7 +69163,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-10-16</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -69241,7 +69231,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>2009-09-08</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -69309,7 +69299,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>2013-02-16</t>
+          <t>2009-09-08</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -69377,7 +69367,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2013-02-16</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -69445,7 +69435,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>2009-10-22</t>
+          <t>2014-06-30</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -69513,7 +69503,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>2013-02-22</t>
+          <t>2009-10-22</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -69531,7 +69521,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>d4873a37-b106-4979-9765-158f83d3fb8a</t>
+          <t>544ab50c-ba74-49ec-94c4-44461dcf1126</t>
         </is>
       </c>
       <c r="F563" t="n">
@@ -69581,7 +69571,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>2009-10-19</t>
+          <t>2013-02-22</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -69599,7 +69589,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>544ab50c-ba74-49ec-94c4-44461dcf1126</t>
+          <t>d4873a37-b106-4979-9765-158f83d3fb8a</t>
         </is>
       </c>
       <c r="F564" t="n">
@@ -69649,7 +69639,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>2013-02-07</t>
+          <t>2009-10-19</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -69717,7 +69707,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>2009-10-14</t>
+          <t>2013-02-07</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -69785,7 +69775,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2009-09-24</t>
+          <t>2009-10-14</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -69853,7 +69843,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>2013-02-10</t>
+          <t>2009-09-24</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -69921,7 +69911,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>2012-09-17</t>
+          <t>2013-02-10</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -69989,7 +69979,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>2007-11-22</t>
+          <t>2012-09-17</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -70057,7 +70047,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>2011-03-04</t>
+          <t>2007-11-22</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -70125,7 +70115,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>2011-03-01</t>
+          <t>2011-03-04</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -70193,7 +70183,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>2013-12-20</t>
+          <t>2011-03-01</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -70261,7 +70251,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>2015-01-27</t>
+          <t>2013-12-20</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -70329,7 +70319,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>2009-12-06</t>
+          <t>2015-01-27</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -70397,7 +70387,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2009-12-06</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -70465,7 +70455,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2015-01-24</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -70533,7 +70523,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2012-07-29</t>
+          <t>2015-01-24</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -70601,7 +70591,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2008-07-12</t>
+          <t>2012-07-29</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -70669,7 +70659,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>2015-01-16</t>
+          <t>2008-07-12</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -70737,7 +70727,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>2012-07-30</t>
+          <t>2015-01-16</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -70805,7 +70795,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2012-07-30</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -70873,7 +70863,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>2013-12-06</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -70941,7 +70931,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>2010-08-28</t>
+          <t>2013-12-06</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -70959,7 +70949,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>4dc52b77-a60c-442d-9e89-e2167c6ead35</t>
+          <t>9648aadb-fffe-4e12-a4ee-7de99e18885f</t>
         </is>
       </c>
       <c r="F584" t="n">
@@ -71009,7 +70999,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>2015-11-11</t>
+          <t>2010-08-28</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -71027,7 +71017,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>9648aadb-fffe-4e12-a4ee-7de99e18885f</t>
+          <t>4dc52b77-a60c-442d-9e89-e2167c6ead35</t>
         </is>
       </c>
       <c r="F585" t="n">
@@ -71077,7 +71067,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>2015-01-03</t>
+          <t>2015-11-11</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -71145,7 +71135,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>2013-02-01</t>
+          <t>2015-01-03</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -71213,7 +71203,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>2009-12-27</t>
+          <t>2013-02-01</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -71281,7 +71271,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>2010-08-16</t>
+          <t>2009-12-27</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -71349,7 +71339,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>2012-07-10</t>
+          <t>2010-08-16</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -71417,7 +71407,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>2013-12-25</t>
+          <t>2012-07-10</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -71485,7 +71475,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>2009-12-12</t>
+          <t>2013-12-25</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -71621,7 +71611,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>2012-07-14</t>
+          <t>2009-12-12</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -71689,7 +71679,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>2008-03-06</t>
+          <t>2012-07-14</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -71757,7 +71747,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>2010-08-04</t>
+          <t>2008-03-06</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -71893,7 +71883,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>2010-08-09</t>
+          <t>2010-08-04</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -71961,7 +71951,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2010-08-09</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -72029,7 +72019,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2014-04-12</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -72097,7 +72087,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2011-07-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -72165,7 +72155,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2011-07-14</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -72183,7 +72173,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>9936066d-f87c-406d-a8b8-8993ebc6f0a8</t>
+          <t>fd7ae18d-e3a7-4852-b209-c28743552c44</t>
         </is>
       </c>
       <c r="F602" t="n">
@@ -72233,7 +72223,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>2013-04-27</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -72251,7 +72241,7 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>fd7ae18d-e3a7-4852-b209-c28743552c44</t>
+          <t>9936066d-f87c-406d-a8b8-8993ebc6f0a8</t>
         </is>
       </c>
       <c r="F603" t="n">
@@ -72301,7 +72291,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>2008-03-13</t>
+          <t>2013-04-27</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -72369,7 +72359,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>2009-02-24</t>
+          <t>2008-03-13</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -72437,7 +72427,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>2009-02-22</t>
+          <t>2009-02-24</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -72505,7 +72495,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>2013-06-03</t>
+          <t>2009-02-22</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -72573,7 +72563,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>2012-05-26</t>
+          <t>2013-06-03</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -72641,7 +72631,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2017-02-21</t>
+          <t>2012-05-26</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -72709,7 +72699,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>2010-06-27</t>
+          <t>2017-02-21</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -72777,7 +72767,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>2011-05-22</t>
+          <t>2010-06-27</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -72795,7 +72785,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>72cdd743-cb73-4c6f-a816-132cc183c418</t>
+          <t>4912101e-5e67-4162-a56b-6d67c9585ed5</t>
         </is>
       </c>
       <c r="F611" t="n">
@@ -72845,7 +72835,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2010-06-21</t>
+          <t>2011-05-22</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -72863,7 +72853,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>4912101e-5e67-4162-a56b-6d67c9585ed5</t>
+          <t>72cdd743-cb73-4c6f-a816-132cc183c418</t>
         </is>
       </c>
       <c r="F612" t="n">
@@ -72913,7 +72903,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2011-05-31</t>
+          <t>2010-06-21</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -72981,7 +72971,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2011-05-31</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -73049,7 +73039,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2012-05-11</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -73117,7 +73107,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2011-05-06</t>
+          <t>2012-05-11</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -73185,7 +73175,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>2011-05-03</t>
+          <t>2011-05-06</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -73253,7 +73243,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>2017-02-04</t>
+          <t>2011-05-03</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -73321,7 +73311,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>2009-04-04</t>
+          <t>2017-02-04</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -73457,7 +73447,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>2009-04-03</t>
+          <t>2013-04-17</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -73525,7 +73515,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2009-04-03</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -74273,7 +74263,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2016-10-27</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -74341,7 +74331,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>2016-10-27</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -75583,7 +75573,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>5b081429-466d-4020-a995-f1771783a290</t>
+          <t>249ccd49-d536-4bdd-9715-e40acf9c373c</t>
         </is>
       </c>
       <c r="F652" t="n">
@@ -75633,7 +75623,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>2015-05-08</t>
+          <t>2008-11-02</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -75651,7 +75641,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>249ccd49-d536-4bdd-9715-e40acf9c373c</t>
+          <t>a6b26a6f-9dc9-45fb-a101-168cca737489</t>
         </is>
       </c>
       <c r="F653" t="n">
@@ -75719,7 +75709,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>a6b26a6f-9dc9-45fb-a101-168cca737489</t>
+          <t>5b081429-466d-4020-a995-f1771783a290</t>
         </is>
       </c>
       <c r="F654" t="n">
@@ -75769,7 +75759,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2008-11-02</t>
+          <t>2015-05-08</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -79781,7 +79771,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>2011-10-27</t>
+          <t>2012-10-21</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -79849,7 +79839,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>2012-10-21</t>
+          <t>2011-10-27</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -82661,7 +82651,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>230f8289-9cfc-4d8e-9d5b-c5034ccb7548</t>
+          <t>e6a8447c-7bb3-42f4-a6a0-a25efb5454a4</t>
         </is>
       </c>
       <c r="F755" t="n">
@@ -82731,7 +82721,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>e6a8447c-7bb3-42f4-a6a0-a25efb5454a4</t>
+          <t>230f8289-9cfc-4d8e-9d5b-c5034ccb7548</t>
         </is>
       </c>
       <c r="F756" t="n">
@@ -83991,7 +83981,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>0d42c394-9b2c-4dec-83dc-e5611b2f3216</t>
+          <t>0cc605b2-5b5e-424e-a146-0070dea05e40</t>
         </is>
       </c>
       <c r="F774" t="n">
@@ -84061,7 +84051,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>0cc605b2-5b5e-424e-a146-0070dea05e40</t>
+          <t>0d42c394-9b2c-4dec-83dc-e5611b2f3216</t>
         </is>
       </c>
       <c r="F775" t="n">
@@ -85321,7 +85311,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>2ec4ad0b-8a8d-4cad-811d-1f746ec6c15a</t>
+          <t>6dfa6f5a-71d9-4b99-af4d-367460975d4d</t>
         </is>
       </c>
       <c r="F793" t="n">
@@ -85391,7 +85381,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>6dfa6f5a-71d9-4b99-af4d-367460975d4d</t>
+          <t>2ec4ad0b-8a8d-4cad-811d-1f746ec6c15a</t>
         </is>
       </c>
       <c r="F794" t="n">
